--- a/production/extension-CHECKED/Manufacturing/Assembly/ZSWatch-Extension-bom.xlsx
+++ b/production/extension-CHECKED/Manufacturing/Assembly/ZSWatch-Extension-bom.xlsx
@@ -746,7 +746,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2026-02-20 14:45:12</t>
+    <t>2026-02-20 15:18:24</t>
   </si>
   <si>
     <t>KiCost® v1.1.20 + KiBot v1.8.5</t>
